--- a/results/mod3.galtanBYhealth.eff.MN.xlsx
+++ b/results/mod3.galtanBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0000471172241594141</v>
+        <v>0.0000532934561545027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0189826282703032</v>
+        <v>0.01899310997672</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0371581505175467</v>
+        <v>-0.0371725180526251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0372523849658655</v>
+        <v>0.0372791049649341</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00248212331235107</v>
+        <v>0.00280593626951168</v>
       </c>
       <c r="H2" t="n">
-        <v>0.998019554164633</v>
+        <v>0.997761189709756</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0120991681231551</v>
+        <v>0.0120815026465869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0397892109223245</v>
+        <v>0.0398289465198194</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0658862522578688</v>
+        <v>-0.065981798074431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0900845885041789</v>
+        <v>0.0901448033676048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.304081630238276</v>
+        <v>0.303334727685428</v>
       </c>
       <c r="H3" t="n">
-        <v>0.761065701543399</v>
+        <v>0.76163478325108</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00257355435013122</v>
+        <v>-0.00256747797074551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0156780374066934</v>
+        <v>0.0156898451143946</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.033301943015522</v>
+        <v>-0.0333190093179706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0281548343152596</v>
+        <v>0.0281840533764796</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.164150287652235</v>
+        <v>-0.163639472029586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.869612834856729</v>
+        <v>0.87001496934448</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00957273099718325</v>
+        <v>-0.00956731813199587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0145195460833961</v>
+        <v>0.0145317604408624</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0380305183925092</v>
+        <v>-0.03804904522805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0188850563981427</v>
+        <v>0.0189144089640582</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.659299604973891</v>
+        <v>-0.658372959761517</v>
       </c>
       <c r="H5" t="n">
-        <v>0.509703396030865</v>
+        <v>0.510298506332497</v>
       </c>
     </row>
   </sheetData>
